--- a/directions summary.xlsx
+++ b/directions summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6754c6f1d6114bf5/github/BDFleet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADACD35-B27D-46CB-B83C-5DAC53A57047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6ADACD35-B27D-46CB-B83C-5DAC53A57047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F80E910-7A23-43ED-BA88-3A162605DB34}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="1365" windowWidth="19755" windowHeight="13680" xr2:uid="{261CB668-A3E8-4AA7-B1AE-293B9CCA650A}"/>
+    <workbookView xWindow="29625" yWindow="1275" windowWidth="16845" windowHeight="11925" xr2:uid="{261CB668-A3E8-4AA7-B1AE-293B9CCA650A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,9 +294,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -305,7 +304,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F3021E46-965A-4C16-AC8A-DD03B1DACFA2}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,536 +643,534 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>529</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>382</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>397</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>305</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>255</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>221</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>628</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>428</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>230</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>247</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>456</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>383</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>310</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="1">
+      <c r="E58">
         <f>SUM(E5:E57)</f>
         <v>7037</v>
       </c>
